--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="9795"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="21440" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
     <sheet name="野怪信息表" sheetId="2" r:id="rId2"/>
     <sheet name="野怪数值" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -297,17 +302,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,19 +617,19 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,14 +639,14 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
@@ -655,10 +660,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -680,9 +685,9 @@
       <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -701,9 +706,9 @@
       <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -722,9 +727,9 @@
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -743,9 +748,9 @@
       <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -764,9 +769,9 @@
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -785,9 +790,9 @@
       <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -806,9 +811,9 @@
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -827,9 +832,9 @@
       <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -848,9 +853,9 @@
       <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -869,9 +874,9 @@
       <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -890,9 +895,9 @@
       <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -911,9 +916,9 @@
       <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -932,9 +937,9 @@
       <c r="G16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -953,9 +958,9 @@
       <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -974,9 +979,9 @@
       <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -995,19 +1000,19 @@
       <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="8"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1015,7 +1020,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1027,16 +1037,16 @@
       <selection activeCell="G2" sqref="D1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="14.1640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -1046,19 +1056,19 @@
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1085,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1119,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1141,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1174,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1202,7 +1212,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1214,14 +1229,14 @@
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.83203125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1264,8 +1279,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>25</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1482,7 +1497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1560,7 +1575,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1677,7 +1692,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1989,7 +2004,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2028,7 +2043,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2106,7 +2121,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2223,7 +2238,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2262,7 +2277,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2301,7 +2316,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2340,7 +2355,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2379,7 +2394,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2613,7 +2628,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2652,7 +2667,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2769,7 +2784,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2808,7 +2823,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2964,7 +2979,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3120,7 +3135,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3198,7 +3213,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3243,5 +3258,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="40" windowWidth="21440" windowHeight="9800"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="21820" windowHeight="12140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Type No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total_HP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1223,19 +1227,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="3"/>
+    <col min="2" max="14" width="8.83203125" style="3"/>
+    <col min="15" max="15" width="11" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -1278,8 +1284,11 @@
       <c r="N1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>25</v>
@@ -1305,8 +1314,12 @@
       <c r="I2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="3">
+        <f>B2*5</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1340,8 +1353,12 @@
         <f>60*A3</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O52" si="0">B3*5</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1379,8 +1396,12 @@
         <f>60*A4</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1401,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J52" si="0">1/(A5*2)</f>
+        <f t="shared" ref="J5:J52" si="1">1/(A5*2)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="K5" s="3">
@@ -1411,36 +1432,40 @@
         <v>190</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5:M52" si="1">J5*L5</f>
+        <f t="shared" ref="M5:M52" si="2">J5*L5</f>
         <v>31.666666666666664</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:N52" si="2">60*A5</f>
+        <f t="shared" ref="N5:N52" si="3">60*A5</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B52" si="3">25+8*(A6-1)</f>
+        <f t="shared" ref="B6:B52" si="4">25+8*(A6-1)</f>
         <v>49</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C50" si="4">10+2.4*(A6-1)</f>
+        <f t="shared" ref="C6:C50" si="5">10+2.4*(A6-1)</f>
         <v>17.2</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D50" si="5">10+2*(A6-1)</f>
+        <f t="shared" ref="D6:D50" si="6">10+2*(A6-1)</f>
         <v>16</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E50" si="6">10+2*(A6-1)</f>
+        <f t="shared" ref="E6:E50" si="7">10+2*(A6-1)</f>
         <v>16</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="K6" s="3">
@@ -1450,36 +1475,40 @@
         <v>290</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.25</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.600000000000001</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K7" s="3">
@@ -1489,36 +1518,40 @@
         <v>410</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K8" s="3">
@@ -1528,36 +1561,40 @@
         <v>550</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.833333333333329</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.4</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="K9" s="3">
@@ -1567,36 +1604,40 @@
         <v>710</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.714285714285708</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.8</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="K10" s="3">
@@ -1606,36 +1647,40 @@
         <v>890</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.625</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.2</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="K11" s="3">
@@ -1645,36 +1690,40 @@
         <v>1090</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.55555555555555</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31.599999999999998</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="K12" s="3">
@@ -1684,36 +1733,40 @@
         <v>1310</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.5</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="K13" s="3">
@@ -1723,36 +1776,40 @@
         <v>1550</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70.454545454545453</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>660</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.4</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K14" s="3">
@@ -1762,36 +1819,40 @@
         <v>1810</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75.416666666666657</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38.799999999999997</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="K15" s="3">
@@ -1801,36 +1862,40 @@
         <v>2090</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80.384615384615387</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.2</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="K16" s="3">
@@ -1840,36 +1905,40 @@
         <v>2390</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85.357142857142847</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>840</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.6</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K17" s="3">
@@ -1879,36 +1948,40 @@
         <v>2710</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.333333333333329</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="K18" s="3">
@@ -1918,36 +1991,40 @@
         <v>3050</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95.3125</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>960</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.4</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="K19" s="3">
@@ -1957,36 +2034,40 @@
         <v>3410</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.29411764705883</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1020</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50.8</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="K20" s="3">
@@ -1996,36 +2077,40 @@
         <v>3790</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105.27777777777777</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.199999999999996</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="K21" s="3">
@@ -2035,36 +2120,40 @@
         <v>4190</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110.26315789473684</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1140</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>177</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.6</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K22" s="3">
@@ -2074,36 +2163,40 @@
         <v>4610</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.25</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3">
+        <f t="shared" si="0"/>
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="K23" s="3">
@@ -2113,36 +2206,40 @@
         <v>5050</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120.23809523809523</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3">
+        <f t="shared" si="0"/>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.4</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="K24" s="3">
@@ -2152,36 +2249,40 @@
         <v>5510</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.22727272727273</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1320</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.8</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K25" s="3">
@@ -2191,36 +2292,40 @@
         <v>5990</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130.21739130434781</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1380</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3">
+        <f t="shared" si="0"/>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>209</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.199999999999989</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="K26" s="3">
@@ -2230,36 +2335,40 @@
         <v>6490</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.20833333333331</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>217</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.599999999999994</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
       <c r="K27" s="3">
@@ -2269,36 +2378,40 @@
         <v>7010</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140.20000000000002</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="3">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="K28" s="3">
@@ -2308,36 +2421,40 @@
         <v>7550</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145.19230769230771</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1560</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="3">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.400000000000006</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K29" s="3">
@@ -2347,36 +2464,40 @@
         <v>8110</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150.18518518518519</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.8</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="K30" s="3">
@@ -2386,36 +2507,40 @@
         <v>8690</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155.17857142857142</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1680</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="3">
+        <f t="shared" si="0"/>
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.2</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="K31" s="3">
@@ -2425,36 +2550,40 @@
         <v>9290</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160.17241379310346</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1740</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="3">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.599999999999994</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K32" s="3">
@@ -2464,36 +2593,40 @@
         <v>9910</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.16666666666666</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="3">
+        <f t="shared" si="0"/>
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="K33" s="3">
@@ -2503,36 +2636,40 @@
         <v>10550</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.16129032258064</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1860</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="3">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84.399999999999991</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="K34" s="3">
@@ -2542,36 +2679,40 @@
         <v>11210</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175.15625</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1920</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="3">
+        <f t="shared" si="0"/>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.8</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K35" s="3">
@@ -2581,36 +2722,40 @@
         <v>11890</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180.15151515151516</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="3">
+        <f t="shared" si="0"/>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.2</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="K36" s="3">
@@ -2620,36 +2765,40 @@
         <v>12590</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>185.14705882352942</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="3">
+        <f t="shared" si="0"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.6</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="K37" s="3">
@@ -2659,36 +2808,40 @@
         <v>13310</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190.14285714285714</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="3">
+        <f t="shared" si="0"/>
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="K38" s="3">
@@ -2698,36 +2851,40 @@
         <v>14050</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195.13888888888889</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2160</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="3">
+        <f t="shared" si="0"/>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96.399999999999991</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3513513513513514E-2</v>
       </c>
       <c r="K39" s="3">
@@ -2737,36 +2894,40 @@
         <v>14810</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200.13513513513516</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2220</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="3">
+        <f t="shared" si="0"/>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98.8</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3157894736842105E-2</v>
       </c>
       <c r="K40" s="3">
@@ -2776,36 +2937,40 @@
         <v>15590</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>205.13157894736841</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2280</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="3">
+        <f t="shared" si="0"/>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>329</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101.2</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.282051282051282E-2</v>
       </c>
       <c r="K41" s="3">
@@ -2815,36 +2980,40 @@
         <v>16390</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210.12820512820511</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2340</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" s="3">
+        <f t="shared" si="0"/>
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>337</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.6</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K42" s="3">
@@ -2854,36 +3023,40 @@
         <v>17210</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215.125</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" s="3">
+        <f t="shared" si="0"/>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="K43" s="3">
@@ -2893,36 +3066,40 @@
         <v>18050</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220.1219512195122</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2460</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" s="3">
+        <f t="shared" si="0"/>
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108.39999999999999</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="K44" s="3">
@@ -2932,36 +3109,40 @@
         <v>18910</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225.11904761904762</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2520</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" s="3">
+        <f t="shared" si="0"/>
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110.8</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1627906976744186E-2</v>
       </c>
       <c r="K45" s="3">
@@ -2971,36 +3152,40 @@
         <v>19790</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230.11627906976744</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2580</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" s="3">
+        <f t="shared" si="0"/>
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>369</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.2</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="K46" s="3">
@@ -3010,36 +3195,40 @@
         <v>20690</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.11363636363637</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2640</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" s="3">
+        <f t="shared" si="0"/>
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>377</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.6</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="K47" s="3">
@@ -3049,36 +3238,40 @@
         <v>21610</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240.11111111111111</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" s="3">
+        <f t="shared" si="0"/>
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>385</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="K48" s="3">
@@ -3088,36 +3281,40 @@
         <v>22550</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245.10869565217391</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="3">
+        <f t="shared" si="0"/>
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>393</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120.39999999999999</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="K49" s="3">
@@ -3127,36 +3324,40 @@
         <v>23510</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250.10638297872339</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2820</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="3">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>401</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122.8</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K50" s="3">
@@ -3166,36 +3367,40 @@
         <v>24490</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>255.10416666666666</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2880</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="3">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>409</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51:C52" si="7">10+2.4*(A51-1)</f>
+        <f t="shared" ref="C51:C52" si="8">10+2.4*(A51-1)</f>
         <v>125.19999999999999</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" ref="D51:D52" si="8">10+2*(A51-1)</f>
+        <f t="shared" ref="D51:D52" si="9">10+2*(A51-1)</f>
         <v>106</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" ref="E51:E52" si="9">10+2*(A51-1)</f>
+        <f t="shared" ref="E51:E52" si="10">10+2*(A51-1)</f>
         <v>106</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.020408163265306E-2</v>
       </c>
       <c r="K51" s="3">
@@ -3205,36 +3410,40 @@
         <v>25490</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260.10204081632651</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2940</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="3">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>417</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127.6</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-      <c r="E52" s="3">
         <f t="shared" si="9"/>
         <v>108</v>
       </c>
+      <c r="E52" s="3">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
       <c r="J52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
       <c r="K52" s="3">
@@ -3244,12 +3453,16 @@
         <v>26510</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>265.10000000000002</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="0"/>
+        <v>2085</v>
       </c>
     </row>
   </sheetData>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="40" windowWidth="21820" windowHeight="12140" activeTab="2"/>
+    <workbookView xWindow="4050" yWindow="3885" windowWidth="21435" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
-    <sheet name="野怪信息表" sheetId="2" r:id="rId2"/>
-    <sheet name="野怪数值" sheetId="3" r:id="rId3"/>
+    <sheet name="野怪数值" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Type No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,22 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adapt_Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,22 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5~10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40~45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60~60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,15 +154,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scroll</t>
+    <t>FoodAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EggType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScrollType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -199,30 +189,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FoodAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EggType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScrollType</t>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,9 +292,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,7 +300,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,22 +602,22 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,31 +627,31 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -683,15 +667,15 @@
       <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -707,12 +691,15 @@
       <c r="E5" s="1">
         <v>150</v>
       </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -728,12 +715,15 @@
       <c r="E6" s="1">
         <v>200</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -749,12 +739,15 @@
       <c r="E7" s="1">
         <v>250</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -770,12 +763,15 @@
       <c r="E8" s="1">
         <v>300</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -791,12 +787,15 @@
       <c r="E9" s="1">
         <v>500</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -812,12 +811,15 @@
       <c r="E10" s="1">
         <v>550</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -833,12 +835,15 @@
       <c r="E11" s="1">
         <v>600</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -854,12 +859,15 @@
       <c r="E12" s="1">
         <v>650</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -875,12 +883,15 @@
       <c r="E13" s="1">
         <v>700</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -896,12 +907,15 @@
       <c r="E14" s="1">
         <v>750</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -917,12 +931,15 @@
       <c r="E15" s="1">
         <v>800</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -938,12 +955,15 @@
       <c r="E16" s="1">
         <v>850</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -959,12 +979,15 @@
       <c r="E17" s="1">
         <v>900</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -980,17 +1003,20 @@
       <c r="E18" s="1">
         <v>950</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
@@ -1001,22 +1027,25 @@
       <c r="E19" s="1">
         <v>1000</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="H23" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1035,261 +1064,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="D1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="8" width="14.1640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" style="3" customWidth="1"/>
-    <col min="2" max="14" width="8.83203125" style="3"/>
-    <col min="15" max="15" width="11" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
       <c r="B2" s="3">
         <v>25</v>
       </c>
@@ -1303,37 +1135,33 @@
         <v>10</v>
       </c>
       <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="G2" s="3">
-        <v>2.4</v>
-      </c>
       <c r="H2" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="O2" s="3">
-        <f>B2*5</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3">
         <f>1/(A3*2)</f>
@@ -1353,30 +1181,26 @@
         <f>60*A3</f>
         <v>60</v>
       </c>
-      <c r="O3" s="3">
-        <f t="shared" ref="O3:O52" si="0">B3*5</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>25+8*(A4-1)</f>
-        <v>33</v>
+        <f>300+20*(A4-1)</f>
+        <v>320</v>
       </c>
       <c r="C4" s="3">
-        <f>10+2.4*(A4-1)</f>
-        <v>12.4</v>
+        <f>18+8*(A4-1)</f>
+        <v>26</v>
       </c>
       <c r="D4" s="3">
-        <f>10+2*(A4-1)</f>
-        <v>12</v>
+        <f>10+8*(A4-1)</f>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
-        <f>10+2*(A4-1)</f>
-        <v>12</v>
+        <f>15+9*(A4-1)</f>
+        <v>24</v>
       </c>
       <c r="J4" s="3">
         <f>1/(A4*2)</f>
@@ -1396,33 +1220,29 @@
         <f>60*A4</f>
         <v>120</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <f>25+8*(A5-1)</f>
-        <v>41</v>
+        <f>300+20*(A5-1)</f>
+        <v>340</v>
       </c>
       <c r="C5" s="3">
-        <f>10+2.4*(A5-1)</f>
-        <v>14.8</v>
+        <f>18+8*(A5-1)</f>
+        <v>34</v>
       </c>
       <c r="D5" s="3">
-        <f>10+2*(A5-1)</f>
-        <v>14</v>
+        <f>10+8*(A5-1)</f>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
-        <f>10+2*(A5-1)</f>
-        <v>14</v>
+        <f>15+9*(A5-1)</f>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J52" si="1">1/(A5*2)</f>
+        <f t="shared" ref="J5:J52" si="0">1/(A5*2)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="K5" s="3">
@@ -1432,40 +1252,36 @@
         <v>190</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5:M52" si="2">J5*L5</f>
+        <f t="shared" ref="M5:M52" si="1">J5*L5</f>
         <v>31.666666666666664</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5:N52" si="3">60*A5</f>
+        <f t="shared" ref="N5:N52" si="2">60*A5</f>
         <v>180</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B52" si="4">25+8*(A6-1)</f>
-        <v>49</v>
+        <f t="shared" ref="B6:B69" si="3">300+20*(A6-1)</f>
+        <v>360</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ref="C6:C50" si="5">10+2.4*(A6-1)</f>
-        <v>17.2</v>
+        <f t="shared" ref="C6:C12" si="4">18+8*(A6-1)</f>
+        <v>42</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D50" si="6">10+2*(A6-1)</f>
-        <v>16</v>
+        <f t="shared" ref="D6:D12" si="5">10+8*(A6-1)</f>
+        <v>34</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:E50" si="7">10+2*(A6-1)</f>
-        <v>16</v>
+        <f t="shared" ref="E6:E12" si="6">15+9*(A6-1)</f>
+        <v>42</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="K6" s="3">
@@ -1475,40 +1291,36 @@
         <v>290</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36.25</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="C7" s="3">
         <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="5"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D7" s="3">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="7"/>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="K7" s="3">
@@ -1518,40 +1330,36 @@
         <v>410</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="C8" s="3">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K8" s="3">
@@ -1561,40 +1369,36 @@
         <v>550</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45.833333333333329</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="C9" s="3">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="C9" s="3">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="5"/>
-        <v>24.4</v>
-      </c>
-      <c r="D9" s="3">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="K9" s="3">
@@ -1604,40 +1408,36 @@
         <v>710</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.714285714285708</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="0"/>
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="C10" s="3">
+        <v>74</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="5"/>
-        <v>26.8</v>
-      </c>
-      <c r="D10" s="3">
+        <v>66</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
       <c r="K10" s="3">
@@ -1647,40 +1447,36 @@
         <v>890</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55.625</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="O10" s="3">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="C11" s="3">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="5"/>
-        <v>29.2</v>
-      </c>
-      <c r="D11" s="3">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="7"/>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="K11" s="3">
@@ -1690,40 +1486,36 @@
         <v>1090</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60.55555555555555</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" si="0"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="C12" s="3">
         <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="C12" s="3">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="5"/>
-        <v>31.599999999999998</v>
-      </c>
-      <c r="D12" s="3">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="K12" s="3">
@@ -1733,40 +1525,36 @@
         <v>1310</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65.5</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="O12" s="3">
-        <f t="shared" si="0"/>
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" ref="C13:C76" si="7">18+8*(A13-1)</f>
+        <v>98</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:D76" si="8">10+8*(A13-1)</f>
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13:E76" si="9">15+9*(A13-1)</f>
         <v>105</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="K13" s="3">
@@ -1776,40 +1564,36 @@
         <v>1550</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70.454545454545453</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="O13" s="3">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="4"/>
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>520</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="5"/>
-        <v>36.4</v>
+        <f t="shared" si="7"/>
+        <v>106</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>98</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>114</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K14" s="3">
@@ -1819,40 +1603,36 @@
         <v>1810</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75.416666666666657</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="O14" s="3">
-        <f t="shared" si="0"/>
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="4"/>
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="5"/>
-        <v>38.799999999999997</v>
+        <f t="shared" si="7"/>
+        <v>114</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>106</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>123</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="K15" s="3">
@@ -1862,40 +1642,36 @@
         <v>2090</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80.384615384615387</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="0"/>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="4"/>
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>560</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="5"/>
-        <v>41.2</v>
+        <f t="shared" si="7"/>
+        <v>122</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="8"/>
+        <v>114</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>132</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="K16" s="3">
@@ -1905,40 +1681,36 @@
         <v>2390</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85.357142857142847</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" si="0"/>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>580</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="5"/>
-        <v>43.6</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="6"/>
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>122</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f t="shared" si="9"/>
+        <v>141</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="K17" s="3">
@@ -1948,40 +1720,36 @@
         <v>2710</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90.333333333333329</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="0"/>
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="4"/>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>600</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="5"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>138</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>130</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="7"/>
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>150</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="K18" s="3">
@@ -1991,40 +1759,36 @@
         <v>3050</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95.3125</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>960</v>
       </c>
-      <c r="O18" s="3">
-        <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>620</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="5"/>
-        <v>48.4</v>
+        <f t="shared" si="7"/>
+        <v>146</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>138</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="7"/>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>159</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="K19" s="3">
@@ -2034,40 +1798,36 @@
         <v>3410</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100.29411764705883</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="O19" s="3">
-        <f t="shared" si="0"/>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" si="4"/>
-        <v>161</v>
+        <f t="shared" si="3"/>
+        <v>640</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="5"/>
-        <v>50.8</v>
+        <f t="shared" si="7"/>
+        <v>154</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="8"/>
+        <v>146</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f t="shared" si="9"/>
+        <v>168</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="K20" s="3">
@@ -2077,40 +1837,36 @@
         <v>3790</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>105.27777777777777</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="O20" s="3">
-        <f t="shared" si="0"/>
-        <v>805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="4"/>
-        <v>169</v>
+        <f t="shared" si="3"/>
+        <v>660</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="5"/>
-        <v>53.199999999999996</v>
+        <f t="shared" si="7"/>
+        <v>162</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="6"/>
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>154</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f t="shared" si="9"/>
+        <v>177</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="K21" s="3">
@@ -2120,40 +1876,36 @@
         <v>4190</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110.26315789473684</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="0"/>
-        <v>845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" si="4"/>
-        <v>177</v>
+        <f t="shared" si="3"/>
+        <v>680</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="5"/>
-        <v>55.6</v>
+        <f t="shared" si="7"/>
+        <v>170</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="8"/>
+        <v>162</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="7"/>
-        <v>48</v>
+        <f t="shared" si="9"/>
+        <v>186</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K22" s="3">
@@ -2163,40 +1915,36 @@
         <v>4610</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115.25</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
-        <f t="shared" si="0"/>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="4"/>
-        <v>185</v>
+        <f t="shared" si="3"/>
+        <v>700</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="5"/>
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>178</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="6"/>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>170</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f t="shared" si="9"/>
+        <v>195</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="K23" s="3">
@@ -2206,40 +1954,36 @@
         <v>5050</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120.23809523809523</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="0"/>
-        <v>925</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" si="4"/>
-        <v>193</v>
+        <f t="shared" si="3"/>
+        <v>720</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="5"/>
-        <v>60.4</v>
+        <f t="shared" si="7"/>
+        <v>186</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="8"/>
+        <v>178</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="7"/>
-        <v>52</v>
+        <f t="shared" si="9"/>
+        <v>204</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="K24" s="3">
@@ -2249,40 +1993,36 @@
         <v>5510</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125.22727272727273</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1320</v>
       </c>
-      <c r="O24" s="3">
-        <f t="shared" si="0"/>
-        <v>965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" si="4"/>
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>740</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="5"/>
-        <v>62.8</v>
+        <f t="shared" si="7"/>
+        <v>194</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" si="8"/>
+        <v>186</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="7"/>
-        <v>54</v>
+        <f t="shared" si="9"/>
+        <v>213</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="K25" s="3">
@@ -2292,40 +2032,36 @@
         <v>5990</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130.21739130434781</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1380</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="0"/>
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" si="4"/>
-        <v>209</v>
+        <f t="shared" si="3"/>
+        <v>760</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="5"/>
-        <v>65.199999999999989</v>
+        <f t="shared" si="7"/>
+        <v>202</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>194</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="7"/>
-        <v>56</v>
+        <f t="shared" si="9"/>
+        <v>222</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="K26" s="3">
@@ -2335,40 +2071,36 @@
         <v>6490</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135.20833333333331</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="O26" s="3">
-        <f t="shared" si="0"/>
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" si="4"/>
-        <v>217</v>
+        <f t="shared" si="3"/>
+        <v>780</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="5"/>
-        <v>67.599999999999994</v>
+        <f t="shared" si="7"/>
+        <v>210</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="6"/>
-        <v>58</v>
+        <f t="shared" si="8"/>
+        <v>202</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="7"/>
-        <v>58</v>
+        <f t="shared" si="9"/>
+        <v>231</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="K27" s="3">
@@ -2378,40 +2110,36 @@
         <v>7010</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140.20000000000002</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" si="0"/>
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="4"/>
-        <v>225</v>
+        <f t="shared" si="3"/>
+        <v>800</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>218</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>210</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="K28" s="3">
@@ -2421,40 +2149,36 @@
         <v>7550</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>145.19230769230771</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1560</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" si="0"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="4"/>
-        <v>233</v>
+        <f t="shared" si="3"/>
+        <v>820</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="5"/>
-        <v>72.400000000000006</v>
+        <f t="shared" si="7"/>
+        <v>226</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
-        <v>62</v>
+        <f t="shared" si="8"/>
+        <v>218</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f t="shared" si="9"/>
+        <v>249</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="K29" s="3">
@@ -2464,40 +2188,36 @@
         <v>8110</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150.18518518518519</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1620</v>
       </c>
-      <c r="O29" s="3">
-        <f t="shared" si="0"/>
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="4"/>
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>840</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="5"/>
-        <v>74.8</v>
+        <f t="shared" si="7"/>
+        <v>234</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>226</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="7"/>
-        <v>64</v>
+        <f t="shared" si="9"/>
+        <v>258</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="K30" s="3">
@@ -2507,40 +2227,36 @@
         <v>8690</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>155.17857142857142</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1680</v>
       </c>
-      <c r="O30" s="3">
-        <f t="shared" si="0"/>
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="4"/>
-        <v>249</v>
+        <f t="shared" si="3"/>
+        <v>860</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
-        <v>77.2</v>
+        <f t="shared" si="7"/>
+        <v>242</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>234</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="7"/>
-        <v>66</v>
+        <f t="shared" si="9"/>
+        <v>267</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="K31" s="3">
@@ -2550,40 +2266,36 @@
         <v>9290</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160.17241379310346</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1740</v>
       </c>
-      <c r="O31" s="3">
-        <f t="shared" si="0"/>
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="4"/>
-        <v>257</v>
+        <f t="shared" si="3"/>
+        <v>880</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="5"/>
-        <v>79.599999999999994</v>
+        <f t="shared" si="7"/>
+        <v>250</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="6"/>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>242</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="7"/>
-        <v>68</v>
+        <f t="shared" si="9"/>
+        <v>276</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K32" s="3">
@@ -2593,40 +2305,36 @@
         <v>9910</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>165.16666666666666</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
-        <f t="shared" si="0"/>
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="4"/>
-        <v>265</v>
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>258</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f t="shared" si="9"/>
+        <v>285</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="K33" s="3">
@@ -2636,40 +2344,36 @@
         <v>10550</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170.16129032258064</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1860</v>
       </c>
-      <c r="O33" s="3">
-        <f t="shared" si="0"/>
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="4"/>
-        <v>273</v>
+        <f t="shared" si="3"/>
+        <v>920</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="5"/>
-        <v>84.399999999999991</v>
+        <f t="shared" si="7"/>
+        <v>266</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="6"/>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>258</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="9"/>
+        <v>294</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
       <c r="K34" s="3">
@@ -2679,40 +2383,36 @@
         <v>11210</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>175.15625</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1920</v>
       </c>
-      <c r="O34" s="3">
-        <f t="shared" si="0"/>
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="4"/>
-        <v>281</v>
+        <f t="shared" si="3"/>
+        <v>940</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="5"/>
-        <v>86.8</v>
+        <f t="shared" si="7"/>
+        <v>274</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="6"/>
-        <v>74</v>
+        <f t="shared" si="8"/>
+        <v>266</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="7"/>
-        <v>74</v>
+        <f t="shared" si="9"/>
+        <v>303</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="K35" s="3">
@@ -2722,40 +2422,36 @@
         <v>11890</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180.15151515151516</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="O35" s="3">
-        <f t="shared" si="0"/>
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="4"/>
-        <v>289</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="5"/>
-        <v>89.2</v>
+        <f t="shared" si="7"/>
+        <v>282</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f t="shared" si="8"/>
+        <v>274</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" si="9"/>
+        <v>312</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4705882352941176E-2</v>
       </c>
       <c r="K36" s="3">
@@ -2765,40 +2461,36 @@
         <v>12590</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>185.14705882352942</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2040</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="0"/>
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="4"/>
-        <v>297</v>
+        <f t="shared" si="3"/>
+        <v>980</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="5"/>
-        <v>91.6</v>
+        <f t="shared" si="7"/>
+        <v>290</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f t="shared" si="8"/>
+        <v>282</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
-        <v>78</v>
+        <f t="shared" si="9"/>
+        <v>321</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="K37" s="3">
@@ -2808,40 +2500,36 @@
         <v>13310</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190.14285714285714</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="O37" s="3">
-        <f t="shared" si="0"/>
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="4"/>
-        <v>305</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
-        <v>94</v>
+        <f t="shared" si="7"/>
+        <v>298</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="6"/>
-        <v>80</v>
+        <f t="shared" si="8"/>
+        <v>290</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>330</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="K38" s="3">
@@ -2851,40 +2539,36 @@
         <v>14050</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>195.13888888888889</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2160</v>
       </c>
-      <c r="O38" s="3">
-        <f t="shared" si="0"/>
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="4"/>
-        <v>313</v>
+        <f t="shared" si="3"/>
+        <v>1020</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="5"/>
-        <v>96.399999999999991</v>
+        <f t="shared" si="7"/>
+        <v>306</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" si="8"/>
+        <v>298</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="7"/>
-        <v>82</v>
+        <f t="shared" si="9"/>
+        <v>339</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3513513513513514E-2</v>
       </c>
       <c r="K39" s="3">
@@ -2894,40 +2578,36 @@
         <v>14810</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200.13513513513516</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2220</v>
       </c>
-      <c r="O39" s="3">
-        <f t="shared" si="0"/>
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="4"/>
-        <v>321</v>
+        <f t="shared" si="3"/>
+        <v>1040</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="5"/>
-        <v>98.8</v>
+        <f t="shared" si="7"/>
+        <v>314</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="6"/>
-        <v>84</v>
+        <f t="shared" si="8"/>
+        <v>306</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <f t="shared" si="9"/>
+        <v>348</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3157894736842105E-2</v>
       </c>
       <c r="K40" s="3">
@@ -2937,40 +2617,36 @@
         <v>15590</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>205.13157894736841</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2280</v>
       </c>
-      <c r="O40" s="3">
-        <f t="shared" si="0"/>
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="4"/>
-        <v>329</v>
+        <f t="shared" si="3"/>
+        <v>1060</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="5"/>
-        <v>101.2</v>
+        <f t="shared" si="7"/>
+        <v>322</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="6"/>
-        <v>86</v>
+        <f t="shared" si="8"/>
+        <v>314</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="7"/>
-        <v>86</v>
+        <f t="shared" si="9"/>
+        <v>357</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.282051282051282E-2</v>
       </c>
       <c r="K41" s="3">
@@ -2980,40 +2656,36 @@
         <v>16390</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210.12820512820511</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2340</v>
       </c>
-      <c r="O41" s="3">
-        <f t="shared" si="0"/>
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="4"/>
-        <v>337</v>
+        <f t="shared" si="3"/>
+        <v>1080</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="5"/>
-        <v>103.6</v>
+        <f t="shared" si="7"/>
+        <v>330</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="6"/>
-        <v>88</v>
+        <f t="shared" si="8"/>
+        <v>322</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="7"/>
-        <v>88</v>
+        <f t="shared" si="9"/>
+        <v>366</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K42" s="3">
@@ -3023,40 +2695,36 @@
         <v>17210</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>215.125</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
-      <c r="O42" s="3">
-        <f t="shared" si="0"/>
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="4"/>
-        <v>345</v>
+        <f t="shared" si="3"/>
+        <v>1100</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="5"/>
-        <v>106</v>
+        <f t="shared" si="7"/>
+        <v>338</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" si="8"/>
+        <v>330</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>375</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2195121951219513E-2</v>
       </c>
       <c r="K43" s="3">
@@ -3066,40 +2734,36 @@
         <v>18050</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220.1219512195122</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2460</v>
       </c>
-      <c r="O43" s="3">
-        <f t="shared" si="0"/>
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="4"/>
-        <v>353</v>
+        <f t="shared" si="3"/>
+        <v>1120</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="5"/>
-        <v>108.39999999999999</v>
+        <f t="shared" si="7"/>
+        <v>346</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>338</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="7"/>
-        <v>92</v>
+        <f t="shared" si="9"/>
+        <v>384</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="K44" s="3">
@@ -3109,40 +2773,36 @@
         <v>18910</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>225.11904761904762</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2520</v>
       </c>
-      <c r="O44" s="3">
-        <f t="shared" si="0"/>
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="4"/>
-        <v>361</v>
+        <f t="shared" si="3"/>
+        <v>1140</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="5"/>
-        <v>110.8</v>
+        <f t="shared" si="7"/>
+        <v>354</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="6"/>
-        <v>94</v>
+        <f t="shared" si="8"/>
+        <v>346</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="7"/>
-        <v>94</v>
+        <f t="shared" si="9"/>
+        <v>393</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1627906976744186E-2</v>
       </c>
       <c r="K45" s="3">
@@ -3152,40 +2812,36 @@
         <v>19790</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230.11627906976744</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2580</v>
       </c>
-      <c r="O45" s="3">
-        <f t="shared" si="0"/>
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="4"/>
-        <v>369</v>
+        <f t="shared" si="3"/>
+        <v>1160</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="5"/>
-        <v>113.2</v>
+        <f t="shared" si="7"/>
+        <v>362</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="6"/>
-        <v>96</v>
+        <f t="shared" si="8"/>
+        <v>354</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="7"/>
-        <v>96</v>
+        <f t="shared" si="9"/>
+        <v>402</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1363636363636364E-2</v>
       </c>
       <c r="K46" s="3">
@@ -3195,40 +2851,36 @@
         <v>20690</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>235.11363636363637</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="O46" s="3">
-        <f t="shared" si="0"/>
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="4"/>
-        <v>377</v>
+        <f t="shared" si="3"/>
+        <v>1180</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="5"/>
-        <v>115.6</v>
+        <f t="shared" si="7"/>
+        <v>370</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <f t="shared" si="8"/>
+        <v>362</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="9"/>
+        <v>411</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="K47" s="3">
@@ -3238,40 +2890,36 @@
         <v>21610</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240.11111111111111</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="O47" s="3">
-        <f t="shared" si="0"/>
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="4"/>
-        <v>385</v>
+        <f t="shared" si="3"/>
+        <v>1200</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="5"/>
-        <v>118</v>
+        <f t="shared" si="7"/>
+        <v>378</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>370</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>420</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0869565217391304E-2</v>
       </c>
       <c r="K48" s="3">
@@ -3281,40 +2929,36 @@
         <v>22550</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>245.10869565217391</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2760</v>
       </c>
-      <c r="O48" s="3">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="4"/>
-        <v>393</v>
+        <f t="shared" si="3"/>
+        <v>1220</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="5"/>
-        <v>120.39999999999999</v>
+        <f t="shared" si="7"/>
+        <v>386</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="6"/>
-        <v>102</v>
+        <f t="shared" si="8"/>
+        <v>378</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="7"/>
-        <v>102</v>
+        <f t="shared" si="9"/>
+        <v>429</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0638297872340425E-2</v>
       </c>
       <c r="K49" s="3">
@@ -3324,40 +2968,36 @@
         <v>23510</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250.10638297872339</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2820</v>
       </c>
-      <c r="O49" s="3">
-        <f t="shared" si="0"/>
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="4"/>
-        <v>401</v>
+        <f t="shared" si="3"/>
+        <v>1240</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="5"/>
-        <v>122.8</v>
+        <f t="shared" si="7"/>
+        <v>394</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="6"/>
-        <v>104</v>
+        <f t="shared" si="8"/>
+        <v>386</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="7"/>
-        <v>104</v>
+        <f t="shared" si="9"/>
+        <v>438</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="K50" s="3">
@@ -3367,40 +3007,36 @@
         <v>24490</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>255.10416666666666</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2880</v>
       </c>
-      <c r="O50" s="3">
-        <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="4"/>
-        <v>409</v>
+        <f t="shared" si="3"/>
+        <v>1260</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51:C52" si="8">10+2.4*(A51-1)</f>
-        <v>125.19999999999999</v>
+        <f t="shared" si="7"/>
+        <v>402</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" ref="D51:D52" si="9">10+2*(A51-1)</f>
-        <v>106</v>
+        <f t="shared" si="8"/>
+        <v>394</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" ref="E51:E52" si="10">10+2*(A51-1)</f>
-        <v>106</v>
+        <f t="shared" si="9"/>
+        <v>447</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.020408163265306E-2</v>
       </c>
       <c r="K51" s="3">
@@ -3410,40 +3046,36 @@
         <v>25490</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260.10204081632651</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2940</v>
       </c>
-      <c r="O51" s="3">
-        <f t="shared" si="0"/>
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="4"/>
-        <v>417</v>
+        <f t="shared" si="3"/>
+        <v>1280</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="8"/>
-        <v>127.6</v>
+        <f t="shared" si="7"/>
+        <v>410</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="9"/>
-        <v>108</v>
+        <f t="shared" si="8"/>
+        <v>402</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="10"/>
-        <v>108</v>
+        <f t="shared" si="9"/>
+        <v>456</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
       <c r="K52" s="3">
@@ -3453,16 +3085,1182 @@
         <v>26510</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>265.10000000000002</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
-        <f t="shared" si="0"/>
-        <v>2085</v>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="7"/>
+        <v>418</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="8"/>
+        <v>410</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="9"/>
+        <v>465</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" ref="J53:J82" si="10">1/(A53*2)</f>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K53" s="3">
+        <v>102</v>
+      </c>
+      <c r="L53" s="3">
+        <v>27516.666666666701</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" ref="M53:M82" si="11">J53*L53</f>
+        <v>269.77124183006566</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" ref="N53:N82" si="12">60*A53</f>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <f t="shared" si="3"/>
+        <v>1320</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="7"/>
+        <v>426</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="8"/>
+        <v>418</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="9"/>
+        <v>474</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="10"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="K54" s="3">
+        <v>104</v>
+      </c>
+      <c r="L54" s="3">
+        <v>28526.666666666701</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" si="11"/>
+        <v>274.29487179487211</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="12"/>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <f t="shared" si="3"/>
+        <v>1340</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="7"/>
+        <v>434</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="8"/>
+        <v>426</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="9"/>
+        <v>483</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="10"/>
+        <v>9.433962264150943E-3</v>
+      </c>
+      <c r="K55" s="3">
+        <v>106</v>
+      </c>
+      <c r="L55" s="3">
+        <v>29536.666666666701</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="11"/>
+        <v>278.64779874213866</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="12"/>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <f t="shared" si="3"/>
+        <v>1360</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="7"/>
+        <v>442</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="9"/>
+        <v>492</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="10"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="K56" s="3">
+        <v>108</v>
+      </c>
+      <c r="L56" s="3">
+        <v>30546.666666666701</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="11"/>
+        <v>282.83950617283983</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="12"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="7"/>
+        <v>450</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="9"/>
+        <v>501</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="10"/>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>110</v>
+      </c>
+      <c r="L57" s="3">
+        <v>31556.666666666701</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="11"/>
+        <v>286.87878787878816</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="12"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="7"/>
+        <v>458</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="10"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>112</v>
+      </c>
+      <c r="L58" s="3">
+        <v>32566.666666666701</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="11"/>
+        <v>290.7738095238098</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="12"/>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" si="3"/>
+        <v>1420</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="7"/>
+        <v>466</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="8"/>
+        <v>458</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="9"/>
+        <v>519</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="10"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="K59" s="3">
+        <v>114</v>
+      </c>
+      <c r="L59" s="3">
+        <v>33576.666666666701</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="11"/>
+        <v>294.53216374269033</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="12"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>1440</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="7"/>
+        <v>474</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="8"/>
+        <v>466</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="9"/>
+        <v>528</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="10"/>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="K60" s="3">
+        <v>116</v>
+      </c>
+      <c r="L60" s="3">
+        <v>34586.666666666701</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="11"/>
+        <v>298.16091954023017</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="12"/>
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>1460</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="7"/>
+        <v>482</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="8"/>
+        <v>474</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="9"/>
+        <v>537</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="10"/>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="K61" s="3">
+        <v>118</v>
+      </c>
+      <c r="L61" s="3">
+        <v>35596.666666666701</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="11"/>
+        <v>301.66666666666697</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="12"/>
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>1480</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="8"/>
+        <v>482</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="9"/>
+        <v>546</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>120</v>
+      </c>
+      <c r="L62" s="3">
+        <v>36606.666666666701</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="11"/>
+        <v>305.05555555555583</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="12"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="9"/>
+        <v>555</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="10"/>
+        <v>8.1967213114754103E-3</v>
+      </c>
+      <c r="K63" s="3">
+        <v>122</v>
+      </c>
+      <c r="L63" s="3">
+        <v>37616.666666666701</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="11"/>
+        <v>308.33333333333366</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="12"/>
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <f t="shared" si="3"/>
+        <v>1520</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="7"/>
+        <v>506</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="8"/>
+        <v>498</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="9"/>
+        <v>564</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="10"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>124</v>
+      </c>
+      <c r="L64" s="3">
+        <v>38626.666666666701</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="11"/>
+        <v>311.5053763440863</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="12"/>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <f t="shared" si="3"/>
+        <v>1540</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="7"/>
+        <v>514</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="8"/>
+        <v>506</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="9"/>
+        <v>573</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="10"/>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="K65" s="3">
+        <v>126</v>
+      </c>
+      <c r="L65" s="3">
+        <v>39636.666666666701</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="11"/>
+        <v>314.57671957671982</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="12"/>
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="7"/>
+        <v>522</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="9"/>
+        <v>582</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="10"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K66" s="3">
+        <v>128</v>
+      </c>
+      <c r="L66" s="3">
+        <v>40646.666666666701</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="11"/>
+        <v>317.5520833333336</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="12"/>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <f t="shared" si="3"/>
+        <v>1580</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="7"/>
+        <v>530</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="8"/>
+        <v>522</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="9"/>
+        <v>591</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076927E-3</v>
+      </c>
+      <c r="K67" s="3">
+        <v>130</v>
+      </c>
+      <c r="L67" s="3">
+        <v>41656.666666666701</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="11"/>
+        <v>320.43589743589769</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="12"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="7"/>
+        <v>538</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="10"/>
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="K68" s="3">
+        <v>132</v>
+      </c>
+      <c r="L68" s="3">
+        <v>42666.666666666701</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="11"/>
+        <v>323.23232323232349</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="12"/>
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <f t="shared" si="3"/>
+        <v>1620</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="7"/>
+        <v>546</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="8"/>
+        <v>538</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="9"/>
+        <v>609</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="10"/>
+        <v>7.462686567164179E-3</v>
+      </c>
+      <c r="K69" s="3">
+        <v>134</v>
+      </c>
+      <c r="L69" s="3">
+        <v>43676.666666666701</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="11"/>
+        <v>325.94527363184102</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="12"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <f t="shared" ref="B70:B82" si="13">300+20*(A70-1)</f>
+        <v>1640</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="7"/>
+        <v>554</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="9"/>
+        <v>618</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="10"/>
+        <v>7.3529411764705881E-3</v>
+      </c>
+      <c r="K70" s="3">
+        <v>136</v>
+      </c>
+      <c r="L70" s="3">
+        <v>44686.666666666701</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="11"/>
+        <v>328.57843137254929</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="12"/>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <f t="shared" si="13"/>
+        <v>1660</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="7"/>
+        <v>562</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="9"/>
+        <v>627</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="10"/>
+        <v>7.246376811594203E-3</v>
+      </c>
+      <c r="K71" s="3">
+        <v>138</v>
+      </c>
+      <c r="L71" s="3">
+        <v>45696.666666666701</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="11"/>
+        <v>331.13526570048333</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" si="12"/>
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <f t="shared" si="13"/>
+        <v>1680</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="7"/>
+        <v>570</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="9"/>
+        <v>636</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>140</v>
+      </c>
+      <c r="L72" s="3">
+        <v>46706.666666666701</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="11"/>
+        <v>333.61904761904788</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="12"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <f t="shared" si="13"/>
+        <v>1700</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="7"/>
+        <v>578</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="8"/>
+        <v>570</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="9"/>
+        <v>645</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="10"/>
+        <v>7.0422535211267607E-3</v>
+      </c>
+      <c r="K73" s="3">
+        <v>142</v>
+      </c>
+      <c r="L73" s="3">
+        <v>47716.666666666701</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="11"/>
+        <v>336.03286384976548</v>
+      </c>
+      <c r="N73" s="3">
+        <f t="shared" si="12"/>
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <f t="shared" si="13"/>
+        <v>1720</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="7"/>
+        <v>586</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="8"/>
+        <v>578</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="9"/>
+        <v>654</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="10"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K74" s="3">
+        <v>144</v>
+      </c>
+      <c r="L74" s="3">
+        <v>48726.666666666701</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="11"/>
+        <v>338.37962962962985</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="12"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <f t="shared" si="13"/>
+        <v>1740</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="7"/>
+        <v>594</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="8"/>
+        <v>586</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="9"/>
+        <v>663</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="10"/>
+        <v>6.8493150684931503E-3</v>
+      </c>
+      <c r="K75" s="3">
+        <v>146</v>
+      </c>
+      <c r="L75" s="3">
+        <v>49736.666666666701</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="11"/>
+        <v>340.6621004566212</v>
+      </c>
+      <c r="N75" s="3">
+        <f t="shared" si="12"/>
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <f t="shared" si="13"/>
+        <v>1760</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="7"/>
+        <v>602</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="8"/>
+        <v>594</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="9"/>
+        <v>672</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="10"/>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="K76" s="3">
+        <v>148</v>
+      </c>
+      <c r="L76" s="3">
+        <v>50746.666666666701</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="11"/>
+        <v>342.88288288288311</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="12"/>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <f t="shared" si="13"/>
+        <v>1780</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" ref="C77:C82" si="14">18+8*(A77-1)</f>
+        <v>610</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" ref="D77:D82" si="15">10+8*(A77-1)</f>
+        <v>602</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" ref="E77:E82" si="16">15+9*(A77-1)</f>
+        <v>681</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="K77" s="3">
+        <v>150</v>
+      </c>
+      <c r="L77" s="3">
+        <v>51756.666666666701</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="11"/>
+        <v>345.04444444444471</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="12"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <f t="shared" si="13"/>
+        <v>1800</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="14"/>
+        <v>618</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" si="15"/>
+        <v>610</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="16"/>
+        <v>690</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="10"/>
+        <v>6.5789473684210523E-3</v>
+      </c>
+      <c r="K78" s="3">
+        <v>152</v>
+      </c>
+      <c r="L78" s="3">
+        <v>52766.666666666701</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="11"/>
+        <v>347.14912280701776</v>
+      </c>
+      <c r="N78" s="3">
+        <f t="shared" si="12"/>
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <f t="shared" si="13"/>
+        <v>1820</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="14"/>
+        <v>626</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" si="15"/>
+        <v>618</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="16"/>
+        <v>699</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="10"/>
+        <v>6.4935064935064939E-3</v>
+      </c>
+      <c r="K79" s="3">
+        <v>154</v>
+      </c>
+      <c r="L79" s="3">
+        <v>53776.666666666701</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="11"/>
+        <v>349.19913419913445</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="12"/>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <f t="shared" si="13"/>
+        <v>1840</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="14"/>
+        <v>634</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" si="15"/>
+        <v>626</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="16"/>
+        <v>708</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="10"/>
+        <v>6.41025641025641E-3</v>
+      </c>
+      <c r="K80" s="3">
+        <v>156</v>
+      </c>
+      <c r="L80" s="3">
+        <v>54786.666666666701</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="11"/>
+        <v>351.19658119658141</v>
+      </c>
+      <c r="N80" s="3">
+        <f t="shared" si="12"/>
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <f t="shared" si="13"/>
+        <v>1860</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="14"/>
+        <v>642</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" si="15"/>
+        <v>634</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="16"/>
+        <v>717</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="10"/>
+        <v>6.3291139240506328E-3</v>
+      </c>
+      <c r="K81" s="3">
+        <v>158</v>
+      </c>
+      <c r="L81" s="3">
+        <v>55796.666666666701</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="11"/>
+        <v>353.14345991561203</v>
+      </c>
+      <c r="N81" s="3">
+        <f t="shared" si="12"/>
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <f t="shared" si="13"/>
+        <v>1880</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="14"/>
+        <v>650</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="15"/>
+        <v>642</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="16"/>
+        <v>726</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="10"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="K82" s="3">
+        <v>160</v>
+      </c>
+      <c r="L82" s="3">
+        <v>56806.666666666701</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="11"/>
+        <v>355.04166666666691</v>
+      </c>
+      <c r="N82" s="3">
+        <f t="shared" si="12"/>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3885" windowWidth="21435" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="4050" yWindow="3885" windowWidth="19320" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
     <sheet name="野怪数值" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Type No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60~60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xp(%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,46 +166,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6</t>
+  </si>
+  <si>
+    <t>1~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~12</t>
+  </si>
+  <si>
+    <t>7~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13~18</t>
+  </si>
+  <si>
+    <t>13~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65~70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70~75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75~80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,14 +279,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -273,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,9 +326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -599,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,7 +650,7 @@
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,31 +660,28 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -665,17 +695,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -689,17 +718,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -713,17 +741,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -737,17 +764,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -758,20 +784,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -785,17 +810,16 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -809,17 +833,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -830,20 +853,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -854,20 +876,19 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>650</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>130</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -878,20 +899,19 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -902,20 +922,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -926,20 +945,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>800</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>160</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -950,20 +968,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>850</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -974,20 +991,19 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -998,54 +1014,132 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>950</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>190</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="E19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="6"/>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>210</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>220</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>230</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>240</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1066,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1171,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1105,23 +1199,23 @@
         <v>25</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="3">
         <v>25</v>
       </c>
@@ -3121,11 +3215,11 @@
         <v>102</v>
       </c>
       <c r="L53" s="3">
-        <v>27516.666666666701</v>
+        <v>27550</v>
       </c>
       <c r="M53" s="3">
         <f t="shared" ref="M53:M82" si="11">J53*L53</f>
-        <v>269.77124183006566</v>
+        <v>270.0980392156863</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" ref="N53:N82" si="12">60*A53</f>
@@ -3160,11 +3254,11 @@
         <v>104</v>
       </c>
       <c r="L54" s="3">
-        <v>28526.666666666701</v>
+        <v>28610</v>
       </c>
       <c r="M54" s="3">
         <f t="shared" si="11"/>
-        <v>274.29487179487211</v>
+        <v>275.09615384615387</v>
       </c>
       <c r="N54" s="3">
         <f t="shared" si="12"/>
@@ -3199,11 +3293,11 @@
         <v>106</v>
       </c>
       <c r="L55" s="3">
-        <v>29536.666666666701</v>
+        <v>29690</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="11"/>
-        <v>278.64779874213866</v>
+        <v>280.09433962264148</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="12"/>
@@ -3238,11 +3332,11 @@
         <v>108</v>
       </c>
       <c r="L56" s="3">
-        <v>30546.666666666701</v>
+        <v>30790</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="11"/>
-        <v>282.83950617283983</v>
+        <v>285.09259259259255</v>
       </c>
       <c r="N56" s="3">
         <f t="shared" si="12"/>
@@ -3277,11 +3371,11 @@
         <v>110</v>
       </c>
       <c r="L57" s="3">
-        <v>31556.666666666701</v>
+        <v>31910</v>
       </c>
       <c r="M57" s="3">
         <f t="shared" si="11"/>
-        <v>286.87878787878816</v>
+        <v>290.09090909090907</v>
       </c>
       <c r="N57" s="3">
         <f t="shared" si="12"/>
@@ -3316,11 +3410,11 @@
         <v>112</v>
       </c>
       <c r="L58" s="3">
-        <v>32566.666666666701</v>
+        <v>33050</v>
       </c>
       <c r="M58" s="3">
         <f t="shared" si="11"/>
-        <v>290.7738095238098</v>
+        <v>295.08928571428572</v>
       </c>
       <c r="N58" s="3">
         <f t="shared" si="12"/>
@@ -3355,11 +3449,11 @@
         <v>114</v>
       </c>
       <c r="L59" s="3">
-        <v>33576.666666666701</v>
+        <v>34210</v>
       </c>
       <c r="M59" s="3">
         <f t="shared" si="11"/>
-        <v>294.53216374269033</v>
+        <v>300.08771929824559</v>
       </c>
       <c r="N59" s="3">
         <f t="shared" si="12"/>
@@ -3394,11 +3488,11 @@
         <v>116</v>
       </c>
       <c r="L60" s="3">
-        <v>34586.666666666701</v>
+        <v>35390</v>
       </c>
       <c r="M60" s="3">
         <f t="shared" si="11"/>
-        <v>298.16091954023017</v>
+        <v>305.08620689655174</v>
       </c>
       <c r="N60" s="3">
         <f t="shared" si="12"/>
@@ -3433,11 +3527,11 @@
         <v>118</v>
       </c>
       <c r="L61" s="3">
-        <v>35596.666666666701</v>
+        <v>36590</v>
       </c>
       <c r="M61" s="3">
         <f t="shared" si="11"/>
-        <v>301.66666666666697</v>
+        <v>310.08474576271186</v>
       </c>
       <c r="N61" s="3">
         <f t="shared" si="12"/>
@@ -3472,11 +3566,11 @@
         <v>120</v>
       </c>
       <c r="L62" s="3">
-        <v>36606.666666666701</v>
+        <v>37810</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" si="11"/>
-        <v>305.05555555555583</v>
+        <v>315.08333333333331</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" si="12"/>
@@ -3511,11 +3605,11 @@
         <v>122</v>
       </c>
       <c r="L63" s="3">
-        <v>37616.666666666701</v>
+        <v>39050</v>
       </c>
       <c r="M63" s="3">
         <f t="shared" si="11"/>
-        <v>308.33333333333366</v>
+        <v>320.08196721311475</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" si="12"/>
@@ -3550,11 +3644,11 @@
         <v>124</v>
       </c>
       <c r="L64" s="3">
-        <v>38626.666666666701</v>
+        <v>40310</v>
       </c>
       <c r="M64" s="3">
         <f t="shared" si="11"/>
-        <v>311.5053763440863</v>
+        <v>325.08064516129031</v>
       </c>
       <c r="N64" s="3">
         <f t="shared" si="12"/>
@@ -3589,11 +3683,11 @@
         <v>126</v>
       </c>
       <c r="L65" s="3">
-        <v>39636.666666666701</v>
+        <v>41590</v>
       </c>
       <c r="M65" s="3">
         <f t="shared" si="11"/>
-        <v>314.57671957671982</v>
+        <v>330.07936507936506</v>
       </c>
       <c r="N65" s="3">
         <f t="shared" si="12"/>
@@ -3628,11 +3722,11 @@
         <v>128</v>
       </c>
       <c r="L66" s="3">
-        <v>40646.666666666701</v>
+        <v>42890</v>
       </c>
       <c r="M66" s="3">
         <f t="shared" si="11"/>
-        <v>317.5520833333336</v>
+        <v>335.078125</v>
       </c>
       <c r="N66" s="3">
         <f t="shared" si="12"/>
@@ -3667,11 +3761,11 @@
         <v>130</v>
       </c>
       <c r="L67" s="3">
-        <v>41656.666666666701</v>
+        <v>44210</v>
       </c>
       <c r="M67" s="3">
         <f t="shared" si="11"/>
-        <v>320.43589743589769</v>
+        <v>340.07692307692309</v>
       </c>
       <c r="N67" s="3">
         <f t="shared" si="12"/>
@@ -3706,11 +3800,11 @@
         <v>132</v>
       </c>
       <c r="L68" s="3">
-        <v>42666.666666666701</v>
+        <v>45550</v>
       </c>
       <c r="M68" s="3">
         <f t="shared" si="11"/>
-        <v>323.23232323232349</v>
+        <v>345.07575757575756</v>
       </c>
       <c r="N68" s="3">
         <f t="shared" si="12"/>
@@ -3745,11 +3839,11 @@
         <v>134</v>
       </c>
       <c r="L69" s="3">
-        <v>43676.666666666701</v>
+        <v>46910</v>
       </c>
       <c r="M69" s="3">
         <f t="shared" si="11"/>
-        <v>325.94527363184102</v>
+        <v>350.07462686567163</v>
       </c>
       <c r="N69" s="3">
         <f t="shared" si="12"/>
@@ -3784,11 +3878,11 @@
         <v>136</v>
       </c>
       <c r="L70" s="3">
-        <v>44686.666666666701</v>
+        <v>48290</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="11"/>
-        <v>328.57843137254929</v>
+        <v>355.0735294117647</v>
       </c>
       <c r="N70" s="3">
         <f t="shared" si="12"/>
@@ -3823,11 +3917,11 @@
         <v>138</v>
       </c>
       <c r="L71" s="3">
-        <v>45696.666666666701</v>
+        <v>49690</v>
       </c>
       <c r="M71" s="3">
         <f t="shared" si="11"/>
-        <v>331.13526570048333</v>
+        <v>360.07246376811594</v>
       </c>
       <c r="N71" s="3">
         <f t="shared" si="12"/>
@@ -3862,11 +3956,11 @@
         <v>140</v>
       </c>
       <c r="L72" s="3">
-        <v>46706.666666666701</v>
+        <v>51110</v>
       </c>
       <c r="M72" s="3">
         <f t="shared" si="11"/>
-        <v>333.61904761904788</v>
+        <v>365.07142857142856</v>
       </c>
       <c r="N72" s="3">
         <f t="shared" si="12"/>
@@ -3901,11 +3995,11 @@
         <v>142</v>
       </c>
       <c r="L73" s="3">
-        <v>47716.666666666701</v>
+        <v>52550</v>
       </c>
       <c r="M73" s="3">
         <f t="shared" si="11"/>
-        <v>336.03286384976548</v>
+        <v>370.07042253521126</v>
       </c>
       <c r="N73" s="3">
         <f t="shared" si="12"/>
@@ -3940,11 +4034,11 @@
         <v>144</v>
       </c>
       <c r="L74" s="3">
-        <v>48726.666666666701</v>
+        <v>54010</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" si="11"/>
-        <v>338.37962962962985</v>
+        <v>375.0694444444444</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" si="12"/>
@@ -3979,11 +4073,11 @@
         <v>146</v>
       </c>
       <c r="L75" s="3">
-        <v>49736.666666666701</v>
+        <v>55490</v>
       </c>
       <c r="M75" s="3">
         <f t="shared" si="11"/>
-        <v>340.6621004566212</v>
+        <v>380.0684931506849</v>
       </c>
       <c r="N75" s="3">
         <f t="shared" si="12"/>
@@ -4018,11 +4112,11 @@
         <v>148</v>
       </c>
       <c r="L76" s="3">
-        <v>50746.666666666701</v>
+        <v>56990</v>
       </c>
       <c r="M76" s="3">
         <f t="shared" si="11"/>
-        <v>342.88288288288311</v>
+        <v>385.06756756756761</v>
       </c>
       <c r="N76" s="3">
         <f t="shared" si="12"/>
@@ -4057,11 +4151,11 @@
         <v>150</v>
       </c>
       <c r="L77" s="3">
-        <v>51756.666666666701</v>
+        <v>58510</v>
       </c>
       <c r="M77" s="3">
         <f t="shared" si="11"/>
-        <v>345.04444444444471</v>
+        <v>390.06666666666672</v>
       </c>
       <c r="N77" s="3">
         <f t="shared" si="12"/>
@@ -4096,11 +4190,11 @@
         <v>152</v>
       </c>
       <c r="L78" s="3">
-        <v>52766.666666666701</v>
+        <v>60050</v>
       </c>
       <c r="M78" s="3">
         <f t="shared" si="11"/>
-        <v>347.14912280701776</v>
+        <v>395.06578947368416</v>
       </c>
       <c r="N78" s="3">
         <f t="shared" si="12"/>
@@ -4135,11 +4229,11 @@
         <v>154</v>
       </c>
       <c r="L79" s="3">
-        <v>53776.666666666701</v>
+        <v>61610</v>
       </c>
       <c r="M79" s="3">
         <f t="shared" si="11"/>
-        <v>349.19913419913445</v>
+        <v>400.06493506493507</v>
       </c>
       <c r="N79" s="3">
         <f t="shared" si="12"/>
@@ -4174,11 +4268,11 @@
         <v>156</v>
       </c>
       <c r="L80" s="3">
-        <v>54786.666666666701</v>
+        <v>63190</v>
       </c>
       <c r="M80" s="3">
         <f t="shared" si="11"/>
-        <v>351.19658119658141</v>
+        <v>405.06410256410254</v>
       </c>
       <c r="N80" s="3">
         <f t="shared" si="12"/>
@@ -4213,11 +4307,11 @@
         <v>158</v>
       </c>
       <c r="L81" s="3">
-        <v>55796.666666666701</v>
+        <v>64790</v>
       </c>
       <c r="M81" s="3">
         <f t="shared" si="11"/>
-        <v>353.14345991561203</v>
+        <v>410.0632911392405</v>
       </c>
       <c r="N81" s="3">
         <f t="shared" si="12"/>
@@ -4252,11 +4346,11 @@
         <v>160</v>
       </c>
       <c r="L82" s="3">
-        <v>56806.666666666701</v>
+        <v>66410</v>
       </c>
       <c r="M82" s="3">
         <f t="shared" si="11"/>
-        <v>355.04166666666691</v>
+        <v>415.0625</v>
       </c>
       <c r="N82" s="3">
         <f t="shared" si="12"/>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3885" windowWidth="19320" windowHeight="9795"/>
+    <workbookView xWindow="-200" yWindow="0" windowWidth="22960" windowHeight="18320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
     <sheet name="野怪数值" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -304,8 +322,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -332,8 +368,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -634,23 +676,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +709,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
@@ -681,7 +723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -704,7 +746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -727,7 +769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -750,7 +792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -773,7 +815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -796,7 +838,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -819,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -842,7 +884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -865,7 +907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -888,7 +930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -911,7 +953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -934,7 +976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -957,7 +999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -980,7 +1022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1003,7 +1045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1026,7 +1068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1049,7 +1091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1072,7 +1114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1095,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1118,7 +1160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1160,17 +1202,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="13.83203125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="6"/>
       <c r="B2" s="3">
         <v>25</v>
@@ -1241,12 +1283,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -1276,7 +1318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1315,7 +1357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1354,7 +1396,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1393,7 +1435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1432,7 +1474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1471,7 +1513,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1510,7 +1552,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1549,7 +1591,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1588,7 +1630,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1627,7 +1669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1666,7 +1708,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1705,7 +1747,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1744,7 +1786,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1783,7 +1825,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1822,7 +1864,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1861,7 +1903,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1900,7 +1942,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1939,7 +1981,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1978,7 +2020,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2017,7 +2059,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2056,7 +2098,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2095,7 +2137,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2173,7 +2215,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2212,7 +2254,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2251,7 +2293,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2290,7 +2332,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2329,7 +2371,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2368,7 +2410,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2407,7 +2449,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2446,7 +2488,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2485,7 +2527,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2524,7 +2566,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2563,7 +2605,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2602,7 +2644,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2641,7 +2683,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2680,7 +2722,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2719,7 +2761,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2758,7 +2800,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2797,7 +2839,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2836,7 +2878,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2875,7 +2917,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2914,7 +2956,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2953,7 +2995,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2992,7 +3034,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3031,7 +3073,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3070,7 +3112,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3109,7 +3151,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3148,7 +3190,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3187,7 +3229,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3226,7 +3268,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3265,7 +3307,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3304,7 +3346,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3343,7 +3385,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3382,7 +3424,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3421,7 +3463,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3460,7 +3502,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3499,7 +3541,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3538,7 +3580,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3577,7 +3619,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3616,7 +3658,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3655,7 +3697,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3694,7 +3736,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -3733,7 +3775,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3772,7 +3814,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3811,7 +3853,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -3850,7 +3892,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -3889,7 +3931,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -3928,7 +3970,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -3967,7 +4009,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -4006,7 +4048,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4045,7 +4087,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4084,7 +4126,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4123,7 +4165,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4162,7 +4204,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4201,7 +4243,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4240,7 +4282,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4279,7 +4321,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -4318,7 +4360,7 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14">
       <c r="A82" s="3">
         <v>80</v>
       </c>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="0" windowWidth="22960" windowHeight="18320" activeTab="1"/>
+    <workbookView xWindow="460" yWindow="580" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1291,13 +1291,13 @@
         <v>150</v>
       </c>
       <c r="C3" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J3" s="3">
         <f>1/(A3*2)</f>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="580" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -937,8 +937,8 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <v>4</v>
+      <c r="C13" s="3">
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -960,7 +960,7 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="1">
@@ -983,7 +983,7 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>5</v>
       </c>
       <c r="D15" s="1">
@@ -1006,7 +1006,7 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>5</v>
       </c>
       <c r="D16" s="1">
@@ -1029,7 +1029,7 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="1">
@@ -1052,7 +1052,7 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="1">
@@ -1075,7 +1075,7 @@
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>5</v>
       </c>
       <c r="D19" s="1">
@@ -1202,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -677,7 +677,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1200,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3897,7 +3897,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ref="B70:B82" si="13">300+20*(A70-1)</f>
+        <f t="shared" ref="B70:B102" si="13">300+20*(A70-1)</f>
         <v>1640</v>
       </c>
       <c r="C70" s="3">
@@ -4174,7 +4174,7 @@
         <v>1780</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" ref="C77:C82" si="14">18+8*(A77-1)</f>
+        <f t="shared" ref="C77:C102" si="14">18+8*(A77-1)</f>
         <v>610</v>
       </c>
       <c r="D77" s="3">
@@ -4397,6 +4397,786 @@
       <c r="N82" s="3">
         <f t="shared" si="12"/>
         <v>4800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <f t="shared" si="13"/>
+        <v>1900</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="14"/>
+        <v>658</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" ref="D83:D102" si="17">10+8*(A83-1)</f>
+        <v>650</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" ref="E83:E102" si="18">15+9*(A83-1)</f>
+        <v>735</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" ref="J83:J102" si="19">1/(A83*2)</f>
+        <v>6.1728395061728392E-3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>162</v>
+      </c>
+      <c r="L83" s="3">
+        <v>68000</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" ref="M83:M102" si="20">J83*L83</f>
+        <v>419.75308641975306</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" ref="N83:N102" si="21">60*A83</f>
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <f t="shared" si="13"/>
+        <v>1920</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="14"/>
+        <v>666</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" si="17"/>
+        <v>658</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="18"/>
+        <v>744</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="19"/>
+        <v>6.0975609756097563E-3</v>
+      </c>
+      <c r="K84" s="3">
+        <v>164</v>
+      </c>
+      <c r="L84" s="3">
+        <v>69600</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="20"/>
+        <v>424.39024390243907</v>
+      </c>
+      <c r="N84" s="3">
+        <f t="shared" si="21"/>
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <f t="shared" si="13"/>
+        <v>1940</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="14"/>
+        <v>674</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="17"/>
+        <v>666</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="18"/>
+        <v>753</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="19"/>
+        <v>6.024096385542169E-3</v>
+      </c>
+      <c r="K85" s="3">
+        <v>166</v>
+      </c>
+      <c r="L85" s="3">
+        <v>71200</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="20"/>
+        <v>428.91566265060243</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" si="21"/>
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <f t="shared" si="13"/>
+        <v>1960</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="14"/>
+        <v>682</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="17"/>
+        <v>674</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="18"/>
+        <v>762</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="19"/>
+        <v>5.9523809523809521E-3</v>
+      </c>
+      <c r="K86" s="3">
+        <v>168</v>
+      </c>
+      <c r="L86" s="3">
+        <v>72800</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="20"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="N86" s="3">
+        <f t="shared" si="21"/>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <f t="shared" si="13"/>
+        <v>1980</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="14"/>
+        <v>690</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" si="17"/>
+        <v>682</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="18"/>
+        <v>771</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="19"/>
+        <v>5.8823529411764705E-3</v>
+      </c>
+      <c r="K87" s="3">
+        <v>170</v>
+      </c>
+      <c r="L87" s="3">
+        <v>74400</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="20"/>
+        <v>437.64705882352939</v>
+      </c>
+      <c r="N87" s="3">
+        <f t="shared" si="21"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <f t="shared" si="13"/>
+        <v>2000</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="14"/>
+        <v>698</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" si="17"/>
+        <v>690</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="18"/>
+        <v>780</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="19"/>
+        <v>5.8139534883720929E-3</v>
+      </c>
+      <c r="K88" s="3">
+        <v>172</v>
+      </c>
+      <c r="L88" s="3">
+        <v>76000</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="20"/>
+        <v>441.86046511627904</v>
+      </c>
+      <c r="N88" s="3">
+        <f t="shared" si="21"/>
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" si="13"/>
+        <v>2020</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="14"/>
+        <v>706</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" si="17"/>
+        <v>698</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="18"/>
+        <v>789</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="19"/>
+        <v>5.7471264367816091E-3</v>
+      </c>
+      <c r="K89" s="3">
+        <v>174</v>
+      </c>
+      <c r="L89" s="3">
+        <v>77600</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="20"/>
+        <v>445.97701149425285</v>
+      </c>
+      <c r="N89" s="3">
+        <f t="shared" si="21"/>
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="13"/>
+        <v>2040</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="14"/>
+        <v>714</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="17"/>
+        <v>706</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="18"/>
+        <v>798</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="19"/>
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="K90" s="3">
+        <v>176</v>
+      </c>
+      <c r="L90" s="3">
+        <v>79200</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="20"/>
+        <v>450</v>
+      </c>
+      <c r="N90" s="3">
+        <f t="shared" si="21"/>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="13"/>
+        <v>2060</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="14"/>
+        <v>722</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" si="17"/>
+        <v>714</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="18"/>
+        <v>807</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="19"/>
+        <v>5.6179775280898875E-3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>178</v>
+      </c>
+      <c r="L91" s="3">
+        <v>80800</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="20"/>
+        <v>453.93258426966293</v>
+      </c>
+      <c r="N91" s="3">
+        <f t="shared" si="21"/>
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="13"/>
+        <v>2080</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="14"/>
+        <v>730</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="17"/>
+        <v>722</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="18"/>
+        <v>816</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="19"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="K92" s="3">
+        <v>180</v>
+      </c>
+      <c r="L92" s="3">
+        <v>82400</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="20"/>
+        <v>457.77777777777777</v>
+      </c>
+      <c r="N92" s="3">
+        <f t="shared" si="21"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="13"/>
+        <v>2100</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="14"/>
+        <v>738</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="17"/>
+        <v>730</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="18"/>
+        <v>825</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="19"/>
+        <v>5.4945054945054949E-3</v>
+      </c>
+      <c r="K93" s="3">
+        <v>182</v>
+      </c>
+      <c r="L93" s="3">
+        <v>84000</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="20"/>
+        <v>461.53846153846155</v>
+      </c>
+      <c r="N93" s="3">
+        <f t="shared" si="21"/>
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="13"/>
+        <v>2120</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="14"/>
+        <v>746</v>
+      </c>
+      <c r="D94" s="3">
+        <f t="shared" si="17"/>
+        <v>738</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="18"/>
+        <v>834</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="19"/>
+        <v>5.434782608695652E-3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>184</v>
+      </c>
+      <c r="L94" s="3">
+        <v>85600</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="20"/>
+        <v>465.21739130434781</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="21"/>
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <f t="shared" si="13"/>
+        <v>2140</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="14"/>
+        <v>754</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" si="17"/>
+        <v>746</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="18"/>
+        <v>843</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="19"/>
+        <v>5.3763440860215058E-3</v>
+      </c>
+      <c r="K95" s="3">
+        <v>186</v>
+      </c>
+      <c r="L95" s="3">
+        <v>87200</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="20"/>
+        <v>468.81720430107532</v>
+      </c>
+      <c r="N95" s="3">
+        <f t="shared" si="21"/>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <f t="shared" si="13"/>
+        <v>2160</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="14"/>
+        <v>762</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" si="17"/>
+        <v>754</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="18"/>
+        <v>852</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="19"/>
+        <v>5.3191489361702126E-3</v>
+      </c>
+      <c r="K96" s="3">
+        <v>188</v>
+      </c>
+      <c r="L96" s="3">
+        <v>88800</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="20"/>
+        <v>472.34042553191489</v>
+      </c>
+      <c r="N96" s="3">
+        <f t="shared" si="21"/>
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <f t="shared" si="13"/>
+        <v>2180</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="14"/>
+        <v>770</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="17"/>
+        <v>762</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="18"/>
+        <v>861</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="19"/>
+        <v>5.263157894736842E-3</v>
+      </c>
+      <c r="K97" s="3">
+        <v>190</v>
+      </c>
+      <c r="L97" s="3">
+        <v>90400</v>
+      </c>
+      <c r="M97" s="3">
+        <f t="shared" si="20"/>
+        <v>475.78947368421052</v>
+      </c>
+      <c r="N97" s="3">
+        <f t="shared" si="21"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <f t="shared" si="13"/>
+        <v>2200</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="14"/>
+        <v>778</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="17"/>
+        <v>770</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="18"/>
+        <v>870</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="19"/>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="K98" s="3">
+        <v>192</v>
+      </c>
+      <c r="L98" s="3">
+        <v>92000</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" si="20"/>
+        <v>479.16666666666663</v>
+      </c>
+      <c r="N98" s="3">
+        <f t="shared" si="21"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <f t="shared" si="13"/>
+        <v>2220</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="14"/>
+        <v>786</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" si="17"/>
+        <v>778</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="18"/>
+        <v>879</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="19"/>
+        <v>5.1546391752577319E-3</v>
+      </c>
+      <c r="K99" s="3">
+        <v>194</v>
+      </c>
+      <c r="L99" s="3">
+        <v>93600</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="20"/>
+        <v>482.4742268041237</v>
+      </c>
+      <c r="N99" s="3">
+        <f t="shared" si="21"/>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" si="13"/>
+        <v>2240</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="14"/>
+        <v>794</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="17"/>
+        <v>786</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="18"/>
+        <v>888</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="19"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>196</v>
+      </c>
+      <c r="L100" s="3">
+        <v>95200</v>
+      </c>
+      <c r="M100" s="3">
+        <f t="shared" si="20"/>
+        <v>485.71428571428567</v>
+      </c>
+      <c r="N100" s="3">
+        <f t="shared" si="21"/>
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <f t="shared" si="13"/>
+        <v>2260</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="14"/>
+        <v>802</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" si="17"/>
+        <v>794</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="18"/>
+        <v>897</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="19"/>
+        <v>5.0505050505050509E-3</v>
+      </c>
+      <c r="K101" s="3">
+        <v>198</v>
+      </c>
+      <c r="L101" s="3">
+        <v>96800</v>
+      </c>
+      <c r="M101" s="3">
+        <f t="shared" si="20"/>
+        <v>488.88888888888891</v>
+      </c>
+      <c r="N101" s="3">
+        <f t="shared" si="21"/>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <f t="shared" si="13"/>
+        <v>2280</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="14"/>
+        <v>810</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" si="17"/>
+        <v>802</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="18"/>
+        <v>906</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>98400</v>
+      </c>
+      <c r="M102" s="3">
+        <f t="shared" si="20"/>
+        <v>492</v>
+      </c>
+      <c r="N102" s="3">
+        <f t="shared" si="21"/>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1200,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3897,7 +3897,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" ref="B70:B102" si="13">300+20*(A70-1)</f>
+        <f t="shared" ref="B70:B82" si="13">300+20*(A70-1)</f>
         <v>1640</v>
       </c>
       <c r="C70" s="3">
@@ -4174,7 +4174,7 @@
         <v>1780</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" ref="C77:C102" si="14">18+8*(A77-1)</f>
+        <f t="shared" ref="C77:C82" si="14">18+8*(A77-1)</f>
         <v>610</v>
       </c>
       <c r="D77" s="3">
@@ -4397,786 +4397,6 @@
       <c r="N82" s="3">
         <f t="shared" si="12"/>
         <v>4800</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="3">
-        <f t="shared" si="13"/>
-        <v>1900</v>
-      </c>
-      <c r="C83" s="3">
-        <f t="shared" si="14"/>
-        <v>658</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" ref="D83:D102" si="17">10+8*(A83-1)</f>
-        <v>650</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" ref="E83:E102" si="18">15+9*(A83-1)</f>
-        <v>735</v>
-      </c>
-      <c r="J83" s="3">
-        <f t="shared" ref="J83:J102" si="19">1/(A83*2)</f>
-        <v>6.1728395061728392E-3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>162</v>
-      </c>
-      <c r="L83" s="3">
-        <v>68000</v>
-      </c>
-      <c r="M83" s="3">
-        <f t="shared" ref="M83:M102" si="20">J83*L83</f>
-        <v>419.75308641975306</v>
-      </c>
-      <c r="N83" s="3">
-        <f t="shared" ref="N83:N102" si="21">60*A83</f>
-        <v>4860</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="3">
-        <f t="shared" si="13"/>
-        <v>1920</v>
-      </c>
-      <c r="C84" s="3">
-        <f t="shared" si="14"/>
-        <v>666</v>
-      </c>
-      <c r="D84" s="3">
-        <f t="shared" si="17"/>
-        <v>658</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="18"/>
-        <v>744</v>
-      </c>
-      <c r="J84" s="3">
-        <f t="shared" si="19"/>
-        <v>6.0975609756097563E-3</v>
-      </c>
-      <c r="K84" s="3">
-        <v>164</v>
-      </c>
-      <c r="L84" s="3">
-        <v>69600</v>
-      </c>
-      <c r="M84" s="3">
-        <f t="shared" si="20"/>
-        <v>424.39024390243907</v>
-      </c>
-      <c r="N84" s="3">
-        <f t="shared" si="21"/>
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="3">
-        <v>83</v>
-      </c>
-      <c r="B85" s="3">
-        <f t="shared" si="13"/>
-        <v>1940</v>
-      </c>
-      <c r="C85" s="3">
-        <f t="shared" si="14"/>
-        <v>674</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" si="17"/>
-        <v>666</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="18"/>
-        <v>753</v>
-      </c>
-      <c r="J85" s="3">
-        <f t="shared" si="19"/>
-        <v>6.024096385542169E-3</v>
-      </c>
-      <c r="K85" s="3">
-        <v>166</v>
-      </c>
-      <c r="L85" s="3">
-        <v>71200</v>
-      </c>
-      <c r="M85" s="3">
-        <f t="shared" si="20"/>
-        <v>428.91566265060243</v>
-      </c>
-      <c r="N85" s="3">
-        <f t="shared" si="21"/>
-        <v>4980</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="3">
-        <v>84</v>
-      </c>
-      <c r="B86" s="3">
-        <f t="shared" si="13"/>
-        <v>1960</v>
-      </c>
-      <c r="C86" s="3">
-        <f t="shared" si="14"/>
-        <v>682</v>
-      </c>
-      <c r="D86" s="3">
-        <f t="shared" si="17"/>
-        <v>674</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="18"/>
-        <v>762</v>
-      </c>
-      <c r="J86" s="3">
-        <f t="shared" si="19"/>
-        <v>5.9523809523809521E-3</v>
-      </c>
-      <c r="K86" s="3">
-        <v>168</v>
-      </c>
-      <c r="L86" s="3">
-        <v>72800</v>
-      </c>
-      <c r="M86" s="3">
-        <f t="shared" si="20"/>
-        <v>433.33333333333331</v>
-      </c>
-      <c r="N86" s="3">
-        <f t="shared" si="21"/>
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="3">
-        <v>85</v>
-      </c>
-      <c r="B87" s="3">
-        <f t="shared" si="13"/>
-        <v>1980</v>
-      </c>
-      <c r="C87" s="3">
-        <f t="shared" si="14"/>
-        <v>690</v>
-      </c>
-      <c r="D87" s="3">
-        <f t="shared" si="17"/>
-        <v>682</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="18"/>
-        <v>771</v>
-      </c>
-      <c r="J87" s="3">
-        <f t="shared" si="19"/>
-        <v>5.8823529411764705E-3</v>
-      </c>
-      <c r="K87" s="3">
-        <v>170</v>
-      </c>
-      <c r="L87" s="3">
-        <v>74400</v>
-      </c>
-      <c r="M87" s="3">
-        <f t="shared" si="20"/>
-        <v>437.64705882352939</v>
-      </c>
-      <c r="N87" s="3">
-        <f t="shared" si="21"/>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="3">
-        <v>86</v>
-      </c>
-      <c r="B88" s="3">
-        <f t="shared" si="13"/>
-        <v>2000</v>
-      </c>
-      <c r="C88" s="3">
-        <f t="shared" si="14"/>
-        <v>698</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" si="17"/>
-        <v>690</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="18"/>
-        <v>780</v>
-      </c>
-      <c r="J88" s="3">
-        <f t="shared" si="19"/>
-        <v>5.8139534883720929E-3</v>
-      </c>
-      <c r="K88" s="3">
-        <v>172</v>
-      </c>
-      <c r="L88" s="3">
-        <v>76000</v>
-      </c>
-      <c r="M88" s="3">
-        <f t="shared" si="20"/>
-        <v>441.86046511627904</v>
-      </c>
-      <c r="N88" s="3">
-        <f t="shared" si="21"/>
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="3">
-        <v>87</v>
-      </c>
-      <c r="B89" s="3">
-        <f t="shared" si="13"/>
-        <v>2020</v>
-      </c>
-      <c r="C89" s="3">
-        <f t="shared" si="14"/>
-        <v>706</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" si="17"/>
-        <v>698</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="18"/>
-        <v>789</v>
-      </c>
-      <c r="J89" s="3">
-        <f t="shared" si="19"/>
-        <v>5.7471264367816091E-3</v>
-      </c>
-      <c r="K89" s="3">
-        <v>174</v>
-      </c>
-      <c r="L89" s="3">
-        <v>77600</v>
-      </c>
-      <c r="M89" s="3">
-        <f t="shared" si="20"/>
-        <v>445.97701149425285</v>
-      </c>
-      <c r="N89" s="3">
-        <f t="shared" si="21"/>
-        <v>5220</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="3">
-        <v>88</v>
-      </c>
-      <c r="B90" s="3">
-        <f t="shared" si="13"/>
-        <v>2040</v>
-      </c>
-      <c r="C90" s="3">
-        <f t="shared" si="14"/>
-        <v>714</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" si="17"/>
-        <v>706</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="18"/>
-        <v>798</v>
-      </c>
-      <c r="J90" s="3">
-        <f t="shared" si="19"/>
-        <v>5.681818181818182E-3</v>
-      </c>
-      <c r="K90" s="3">
-        <v>176</v>
-      </c>
-      <c r="L90" s="3">
-        <v>79200</v>
-      </c>
-      <c r="M90" s="3">
-        <f t="shared" si="20"/>
-        <v>450</v>
-      </c>
-      <c r="N90" s="3">
-        <f t="shared" si="21"/>
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="3">
-        <v>89</v>
-      </c>
-      <c r="B91" s="3">
-        <f t="shared" si="13"/>
-        <v>2060</v>
-      </c>
-      <c r="C91" s="3">
-        <f t="shared" si="14"/>
-        <v>722</v>
-      </c>
-      <c r="D91" s="3">
-        <f t="shared" si="17"/>
-        <v>714</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="18"/>
-        <v>807</v>
-      </c>
-      <c r="J91" s="3">
-        <f t="shared" si="19"/>
-        <v>5.6179775280898875E-3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>178</v>
-      </c>
-      <c r="L91" s="3">
-        <v>80800</v>
-      </c>
-      <c r="M91" s="3">
-        <f t="shared" si="20"/>
-        <v>453.93258426966293</v>
-      </c>
-      <c r="N91" s="3">
-        <f t="shared" si="21"/>
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="3">
-        <v>90</v>
-      </c>
-      <c r="B92" s="3">
-        <f t="shared" si="13"/>
-        <v>2080</v>
-      </c>
-      <c r="C92" s="3">
-        <f t="shared" si="14"/>
-        <v>730</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="17"/>
-        <v>722</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="18"/>
-        <v>816</v>
-      </c>
-      <c r="J92" s="3">
-        <f t="shared" si="19"/>
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="K92" s="3">
-        <v>180</v>
-      </c>
-      <c r="L92" s="3">
-        <v>82400</v>
-      </c>
-      <c r="M92" s="3">
-        <f t="shared" si="20"/>
-        <v>457.77777777777777</v>
-      </c>
-      <c r="N92" s="3">
-        <f t="shared" si="21"/>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="3">
-        <v>91</v>
-      </c>
-      <c r="B93" s="3">
-        <f t="shared" si="13"/>
-        <v>2100</v>
-      </c>
-      <c r="C93" s="3">
-        <f t="shared" si="14"/>
-        <v>738</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="17"/>
-        <v>730</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="18"/>
-        <v>825</v>
-      </c>
-      <c r="J93" s="3">
-        <f t="shared" si="19"/>
-        <v>5.4945054945054949E-3</v>
-      </c>
-      <c r="K93" s="3">
-        <v>182</v>
-      </c>
-      <c r="L93" s="3">
-        <v>84000</v>
-      </c>
-      <c r="M93" s="3">
-        <f t="shared" si="20"/>
-        <v>461.53846153846155</v>
-      </c>
-      <c r="N93" s="3">
-        <f t="shared" si="21"/>
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="3">
-        <v>92</v>
-      </c>
-      <c r="B94" s="3">
-        <f t="shared" si="13"/>
-        <v>2120</v>
-      </c>
-      <c r="C94" s="3">
-        <f t="shared" si="14"/>
-        <v>746</v>
-      </c>
-      <c r="D94" s="3">
-        <f t="shared" si="17"/>
-        <v>738</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" si="18"/>
-        <v>834</v>
-      </c>
-      <c r="J94" s="3">
-        <f t="shared" si="19"/>
-        <v>5.434782608695652E-3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>184</v>
-      </c>
-      <c r="L94" s="3">
-        <v>85600</v>
-      </c>
-      <c r="M94" s="3">
-        <f t="shared" si="20"/>
-        <v>465.21739130434781</v>
-      </c>
-      <c r="N94" s="3">
-        <f t="shared" si="21"/>
-        <v>5520</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="3">
-        <v>93</v>
-      </c>
-      <c r="B95" s="3">
-        <f t="shared" si="13"/>
-        <v>2140</v>
-      </c>
-      <c r="C95" s="3">
-        <f t="shared" si="14"/>
-        <v>754</v>
-      </c>
-      <c r="D95" s="3">
-        <f t="shared" si="17"/>
-        <v>746</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="18"/>
-        <v>843</v>
-      </c>
-      <c r="J95" s="3">
-        <f t="shared" si="19"/>
-        <v>5.3763440860215058E-3</v>
-      </c>
-      <c r="K95" s="3">
-        <v>186</v>
-      </c>
-      <c r="L95" s="3">
-        <v>87200</v>
-      </c>
-      <c r="M95" s="3">
-        <f t="shared" si="20"/>
-        <v>468.81720430107532</v>
-      </c>
-      <c r="N95" s="3">
-        <f t="shared" si="21"/>
-        <v>5580</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="3">
-        <v>94</v>
-      </c>
-      <c r="B96" s="3">
-        <f t="shared" si="13"/>
-        <v>2160</v>
-      </c>
-      <c r="C96" s="3">
-        <f t="shared" si="14"/>
-        <v>762</v>
-      </c>
-      <c r="D96" s="3">
-        <f t="shared" si="17"/>
-        <v>754</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="18"/>
-        <v>852</v>
-      </c>
-      <c r="J96" s="3">
-        <f t="shared" si="19"/>
-        <v>5.3191489361702126E-3</v>
-      </c>
-      <c r="K96" s="3">
-        <v>188</v>
-      </c>
-      <c r="L96" s="3">
-        <v>88800</v>
-      </c>
-      <c r="M96" s="3">
-        <f t="shared" si="20"/>
-        <v>472.34042553191489</v>
-      </c>
-      <c r="N96" s="3">
-        <f t="shared" si="21"/>
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="3">
-        <v>95</v>
-      </c>
-      <c r="B97" s="3">
-        <f t="shared" si="13"/>
-        <v>2180</v>
-      </c>
-      <c r="C97" s="3">
-        <f t="shared" si="14"/>
-        <v>770</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" si="17"/>
-        <v>762</v>
-      </c>
-      <c r="E97" s="3">
-        <f t="shared" si="18"/>
-        <v>861</v>
-      </c>
-      <c r="J97" s="3">
-        <f t="shared" si="19"/>
-        <v>5.263157894736842E-3</v>
-      </c>
-      <c r="K97" s="3">
-        <v>190</v>
-      </c>
-      <c r="L97" s="3">
-        <v>90400</v>
-      </c>
-      <c r="M97" s="3">
-        <f t="shared" si="20"/>
-        <v>475.78947368421052</v>
-      </c>
-      <c r="N97" s="3">
-        <f t="shared" si="21"/>
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="3">
-        <v>96</v>
-      </c>
-      <c r="B98" s="3">
-        <f t="shared" si="13"/>
-        <v>2200</v>
-      </c>
-      <c r="C98" s="3">
-        <f t="shared" si="14"/>
-        <v>778</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" si="17"/>
-        <v>770</v>
-      </c>
-      <c r="E98" s="3">
-        <f t="shared" si="18"/>
-        <v>870</v>
-      </c>
-      <c r="J98" s="3">
-        <f t="shared" si="19"/>
-        <v>5.208333333333333E-3</v>
-      </c>
-      <c r="K98" s="3">
-        <v>192</v>
-      </c>
-      <c r="L98" s="3">
-        <v>92000</v>
-      </c>
-      <c r="M98" s="3">
-        <f t="shared" si="20"/>
-        <v>479.16666666666663</v>
-      </c>
-      <c r="N98" s="3">
-        <f t="shared" si="21"/>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="3">
-        <v>97</v>
-      </c>
-      <c r="B99" s="3">
-        <f t="shared" si="13"/>
-        <v>2220</v>
-      </c>
-      <c r="C99" s="3">
-        <f t="shared" si="14"/>
-        <v>786</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="17"/>
-        <v>778</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="18"/>
-        <v>879</v>
-      </c>
-      <c r="J99" s="3">
-        <f t="shared" si="19"/>
-        <v>5.1546391752577319E-3</v>
-      </c>
-      <c r="K99" s="3">
-        <v>194</v>
-      </c>
-      <c r="L99" s="3">
-        <v>93600</v>
-      </c>
-      <c r="M99" s="3">
-        <f t="shared" si="20"/>
-        <v>482.4742268041237</v>
-      </c>
-      <c r="N99" s="3">
-        <f t="shared" si="21"/>
-        <v>5820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="3">
-        <v>98</v>
-      </c>
-      <c r="B100" s="3">
-        <f t="shared" si="13"/>
-        <v>2240</v>
-      </c>
-      <c r="C100" s="3">
-        <f t="shared" si="14"/>
-        <v>794</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="17"/>
-        <v>786</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="18"/>
-        <v>888</v>
-      </c>
-      <c r="J100" s="3">
-        <f t="shared" si="19"/>
-        <v>5.1020408163265302E-3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>196</v>
-      </c>
-      <c r="L100" s="3">
-        <v>95200</v>
-      </c>
-      <c r="M100" s="3">
-        <f t="shared" si="20"/>
-        <v>485.71428571428567</v>
-      </c>
-      <c r="N100" s="3">
-        <f t="shared" si="21"/>
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="3">
-        <v>99</v>
-      </c>
-      <c r="B101" s="3">
-        <f t="shared" si="13"/>
-        <v>2260</v>
-      </c>
-      <c r="C101" s="3">
-        <f t="shared" si="14"/>
-        <v>802</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" si="17"/>
-        <v>794</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="18"/>
-        <v>897</v>
-      </c>
-      <c r="J101" s="3">
-        <f t="shared" si="19"/>
-        <v>5.0505050505050509E-3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>198</v>
-      </c>
-      <c r="L101" s="3">
-        <v>96800</v>
-      </c>
-      <c r="M101" s="3">
-        <f t="shared" si="20"/>
-        <v>488.88888888888891</v>
-      </c>
-      <c r="N101" s="3">
-        <f t="shared" si="21"/>
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="3">
-        <v>100</v>
-      </c>
-      <c r="B102" s="3">
-        <f t="shared" si="13"/>
-        <v>2280</v>
-      </c>
-      <c r="C102" s="3">
-        <f t="shared" si="14"/>
-        <v>810</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" si="17"/>
-        <v>802</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="18"/>
-        <v>906</v>
-      </c>
-      <c r="J102" s="3">
-        <f t="shared" si="19"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>98400</v>
-      </c>
-      <c r="M102" s="3">
-        <f t="shared" si="20"/>
-        <v>492</v>
-      </c>
-      <c r="N102" s="3">
-        <f t="shared" si="21"/>
-        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="600" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="8540" yWindow="440" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="野怪组合列表" sheetId="1" r:id="rId1"/>
@@ -674,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -692,7 +692,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -745,8 +745,11 @@
       <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -760,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -768,8 +771,11 @@
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -783,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>36</v>
@@ -791,8 +797,11 @@
       <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -806,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
@@ -814,8 +823,11 @@
       <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -829,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
@@ -837,8 +849,11 @@
       <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -852,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
@@ -860,8 +875,11 @@
       <c r="G9" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -874,8 +892,8 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>110</v>
+      <c r="E10" s="3">
+        <v>350</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -883,8 +901,11 @@
       <c r="G10" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -897,8 +918,8 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>120</v>
+      <c r="E11" s="3">
+        <v>400</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>59</v>
@@ -906,8 +927,11 @@
       <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -920,8 +944,8 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>130</v>
+      <c r="E12" s="3">
+        <v>450</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>39</v>
@@ -929,8 +953,11 @@
       <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -943,8 +970,8 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>140</v>
+      <c r="E13" s="3">
+        <v>500</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -952,8 +979,11 @@
       <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -966,8 +996,8 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
-        <v>150</v>
+      <c r="E14" s="3">
+        <v>550</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>58</v>
@@ -975,8 +1005,11 @@
       <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -989,8 +1022,8 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
-        <v>160</v>
+      <c r="E15" s="3">
+        <v>600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>40</v>
@@ -998,8 +1031,11 @@
       <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1012,8 +1048,8 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
-        <v>170</v>
+      <c r="E16" s="3">
+        <v>650</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
@@ -1021,8 +1057,11 @@
       <c r="G16" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1035,8 +1074,8 @@
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>180</v>
+      <c r="E17" s="3">
+        <v>700</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>41</v>
@@ -1044,8 +1083,11 @@
       <c r="G17" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1058,8 +1100,8 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>190</v>
+      <c r="E18" s="3">
+        <v>750</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>41</v>
@@ -1067,8 +1109,11 @@
       <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1081,8 +1126,8 @@
       <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="1">
-        <v>200</v>
+      <c r="E19" s="3">
+        <v>800</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>42</v>
@@ -1090,8 +1135,11 @@
       <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1105,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>210</v>
+        <v>850</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>42</v>
@@ -1113,8 +1161,11 @@
       <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1128,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>57</v>
@@ -1136,8 +1187,11 @@
       <c r="G21" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1151,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>230</v>
+        <v>950</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>56</v>
@@ -1159,8 +1213,11 @@
       <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1174,13 +1231,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="H23" s="3">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>

--- a/const/monsters.xlsx
+++ b/const/monsters.xlsx
@@ -1262,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
